--- a/Misc/Data/mBasicTrade2.xlsx
+++ b/Misc/Data/mBasicTrade2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
   <si>
     <t>Coal</t>
   </si>
@@ -199,12 +199,6 @@
     <t>Wind_g1</t>
   </si>
   <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>PV_g2</t>
-  </si>
-  <si>
     <t>g1</t>
   </si>
   <si>
@@ -275,6 +269,15 @@
   </si>
   <si>
     <t>lineFOM/g_alias</t>
+  </si>
+  <si>
+    <t>id7</t>
+  </si>
+  <si>
+    <t>id8</t>
+  </si>
+  <si>
+    <t>Wind_g2</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,15 +722,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -735,10 +738,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -854,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -867,7 +870,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>39</v>
@@ -875,7 +878,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -883,7 +886,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -900,33 +903,33 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +942,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,57 +960,57 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1015,28 +1018,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1049,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1063,7 @@
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1082,8 +1085,14 @@
       <c r="G1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1100,13 +1109,19 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1123,13 +1138,19 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>1.3</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1149,6 +1170,12 @@
         <v>0</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
@@ -1159,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1290,7 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1284,7 +1311,7 @@
         <v>52</v>
       </c>
       <c r="B6">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
@@ -1296,8 +1323,8 @@
         <v>52</v>
       </c>
       <c r="F6">
-        <f>29300/(1000*3.6)</f>
-        <v>8.1388888888888893</v>
+        <f>31000/(1000*3.6)</f>
+        <v>8.6111111111111107</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,7 +1332,7 @@
         <v>53</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
@@ -1317,8 +1344,50 @@
         <v>53</v>
       </c>
       <c r="F7">
-        <f>14000/(1000*3.6)</f>
-        <v>3.8888888888888888</v>
+        <f>29300/(1000*3.6)</f>
+        <v>8.1388888888888893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8">
+        <f>28800/(1000*3.6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <f>50000/(1000*3.6)</f>
+        <v>13.888888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -1329,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,10 +1425,10 @@
         <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,7 +1448,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,7 +1468,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1419,7 +1488,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,7 +1508,7 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,7 +1528,7 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1467,19 +1536,59 @@
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
         <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +1601,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1616,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>0.05</v>

--- a/Misc/Data/mBasicTrade2.xlsx
+++ b/Misc/Data/mBasicTrade2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -1188,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1400,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
